--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Weekly.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BUD2"/>
+  <dimension ref="A1:BUE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9864,15 +9864,20 @@
       </c>
       <c r="BUB1" s="1" t="inlineStr">
         <is>
+          <t>2022-05-21</t>
+        </is>
+      </c>
+      <c r="BUC1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BUC1" s="1" t="inlineStr">
+      <c r="BUD1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BUD1" s="1" t="inlineStr">
+      <c r="BUE1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -15572,19 +15577,22 @@
         <v>6379.17</v>
       </c>
       <c r="BUA2" t="n">
-        <v>6552.5</v>
-      </c>
-      <c r="BUB2" t="inlineStr">
+        <v>6746.33</v>
+      </c>
+      <c r="BUB2" t="n">
+        <v>6577.45</v>
+      </c>
+      <c r="BUC2" t="inlineStr">
         <is>
           <t>PSI</t>
         </is>
       </c>
-      <c r="BUC2" t="inlineStr">
+      <c r="BUD2" t="inlineStr">
         <is>
           <t>Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="BUD2" t="inlineStr">
+      <c r="BUE2" t="inlineStr">
         <is>
           <t>Index: 1985.01.02=100</t>
         </is>

--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Weekly.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Weekly.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1909">
   <si>
     <t>1986-01-04</t>
   </si>
@@ -5714,6 +5714,12 @@
   </si>
   <si>
     <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
+    <t>2022-06-11</t>
   </si>
   <si>
     <t>Index</t>
@@ -6092,15 +6098,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BUF2"/>
+  <dimension ref="A1:BUH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1904">
+    <row r="1" spans="1:1906">
       <c r="A1" s="1" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -11811,10 +11817,16 @@
       <c r="BUF1" s="1" t="s">
         <v>1902</v>
       </c>
+      <c r="BUG1" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="BUH1" s="1" t="s">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="2" spans="1:1904">
+    <row r="2" spans="1:1906">
       <c r="A2" s="1" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B2">
         <v>131.78</v>
@@ -17508,16 +17520,22 @@
         <v>6726.14</v>
       </c>
       <c r="BUC2">
-        <v>6798.33</v>
-      </c>
-      <c r="BUD2" t="s">
-        <v>1904</v>
-      </c>
-      <c r="BUE2" t="s">
-        <v>1905</v>
+        <v>6741.4</v>
+      </c>
+      <c r="BUD2">
+        <v>6530.04</v>
+      </c>
+      <c r="BUE2">
+        <v>6273.73</v>
       </c>
       <c r="BUF2" t="s">
         <v>1906</v>
+      </c>
+      <c r="BUG2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="BUH2" t="s">
+        <v>1908</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/566/PHSE/Philippine Composite Index - Weekly.xlsx
+++ b/INTLINE/data/566/PHSE/Philippine Composite Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BUI2"/>
+  <dimension ref="A1:BUJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9889,15 +9889,20 @@
       </c>
       <c r="BUG1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="BUH1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BUH1" s="1" t="inlineStr">
+      <c r="BUI1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BUI1" s="1" t="inlineStr">
+      <c r="BUJ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -15612,19 +15617,22 @@
         <v>6331.56</v>
       </c>
       <c r="BUF2" t="n">
-        <v>6263.14</v>
-      </c>
-      <c r="BUG2" t="inlineStr">
+        <v>6217.56</v>
+      </c>
+      <c r="BUG2" t="n">
+        <v>6251.45</v>
+      </c>
+      <c r="BUH2" t="inlineStr">
         <is>
           <t>PSI</t>
         </is>
       </c>
-      <c r="BUH2" t="inlineStr">
+      <c r="BUI2" t="inlineStr">
         <is>
           <t>Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="BUI2" t="inlineStr">
+      <c r="BUJ2" t="inlineStr">
         <is>
           <t>Index: 1985.01.02=100</t>
         </is>
